--- a/10.10.10.130/QDDSSRC_REFLIB/QDDSSRC_REFLIB.xlsx
+++ b/10.10.10.130/QDDSSRC_REFLIB/QDDSSRC_REFLIB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\尚格\10.10.10.130\QDDSSRC_REFLIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\尚格\ShangGe\10.10.10.130\QDDSSRC_REFLIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9757E983-9B87-4AB6-8A2E-7E5294286FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79169BF8-CDDB-4EDF-9A70-17842DF429A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9701BC14-C7FC-4B5B-950B-57A1B4C5E7B3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="1526">
   <si>
     <t>ARAALF</t>
   </si>
@@ -4606,6 +4606,14 @@
   </si>
   <si>
     <t>已下載</t>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4972,19 +4980,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08C1A4-927E-4F8F-8591-5DC01B09F735}">
-  <dimension ref="A1:D918"/>
+  <dimension ref="A1:E918"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="J932" sqref="J932"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1522</v>
       </c>
@@ -4994,8 +5003,11 @@
       <c r="D1" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +5021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5022,8 +5034,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5036,8 +5051,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5078,8 +5096,11 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5093,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5107,7 +5128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5120,8 +5141,11 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5134,8 +5158,11 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5148,8 +5175,11 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5162,8 +5192,11 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -5176,8 +5209,11 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5190,8 +5226,11 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5204,8 +5243,11 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5218,8 +5260,11 @@
       <c r="D17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5232,8 +5277,11 @@
       <c r="D18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5246,8 +5294,11 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5260,8 +5311,11 @@
       <c r="D20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5274,8 +5328,11 @@
       <c r="D21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -5289,7 +5346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5303,7 +5360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5317,7 +5374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5331,7 +5388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5345,7 +5402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5359,7 +5416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5373,7 +5430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5387,7 +5444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5401,7 +5458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5415,7 +5472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5429,7 +5486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5443,7 +5500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -5457,7 +5514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -5471,7 +5528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -5484,8 +5541,11 @@
       <c r="D36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -5498,8 +5558,11 @@
       <c r="D37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -5512,8 +5575,11 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -5526,8 +5592,11 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -5541,7 +5610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5555,7 +5624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5568,8 +5637,11 @@
       <c r="D42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5582,8 +5654,11 @@
       <c r="D43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5596,8 +5671,11 @@
       <c r="D44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -5610,8 +5688,11 @@
       <c r="D45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -5624,8 +5705,11 @@
       <c r="D46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5639,7 +5723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -5653,7 +5737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5667,7 +5751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -5681,7 +5765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -5695,7 +5779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -5708,8 +5792,11 @@
       <c r="D52" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -5723,7 +5810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -5737,7 +5824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -5751,7 +5838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -5765,7 +5852,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -5779,7 +5866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5793,7 +5880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -5807,7 +5894,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -5821,7 +5908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -5835,7 +5922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -5849,7 +5936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -5863,7 +5950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -5877,7 +5964,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5891,7 +5978,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -5905,7 +5992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -5919,7 +6006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -5932,8 +6019,11 @@
       <c r="D68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -5947,7 +6037,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -5961,7 +6051,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -5975,7 +6065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -5989,7 +6079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -6003,7 +6093,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -6017,7 +6107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -6031,7 +6121,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6045,7 +6135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -6059,7 +6149,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -6073,7 +6163,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6087,7 +6177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -6101,7 +6191,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -6115,7 +6205,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -6129,7 +6219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -6143,7 +6233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>128</v>
       </c>
@@ -6157,7 +6247,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -6171,7 +6261,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>130</v>
       </c>
@@ -6185,7 +6275,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -6199,7 +6289,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>132</v>
       </c>
@@ -6213,7 +6303,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -6227,7 +6317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -6241,7 +6331,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -6255,7 +6345,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -6269,7 +6359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -6282,8 +6372,11 @@
       <c r="D93" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -6297,7 +6390,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -6311,7 +6404,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -6325,7 +6418,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -6339,7 +6432,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>155</v>
       </c>
@@ -6353,7 +6446,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -6367,7 +6460,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>157</v>
       </c>
@@ -6381,7 +6474,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>158</v>
       </c>
@@ -6395,7 +6488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>159</v>
       </c>
@@ -6408,8 +6501,11 @@
       <c r="D102" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>160</v>
       </c>
@@ -6422,8 +6518,11 @@
       <c r="D103" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -6436,8 +6535,11 @@
       <c r="D104" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>162</v>
       </c>
@@ -6450,8 +6552,11 @@
       <c r="D105" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>171</v>
       </c>
@@ -6465,7 +6570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -6479,7 +6584,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>173</v>
       </c>
@@ -6492,8 +6597,11 @@
       <c r="D108" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>174</v>
       </c>
@@ -6506,8 +6614,11 @@
       <c r="D109" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>175</v>
       </c>
@@ -6520,8 +6631,11 @@
       <c r="D110" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -6535,7 +6649,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>177</v>
       </c>
